--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630530.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630530.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD4F047E-311D-4DE5-8292-99B3C6188394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC5D2935-7A23-4508-8785-F673AEED0682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T062951.664" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-25T060457.753" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="103">
   <si>
     <t>Do Ty</t>
   </si>
@@ -248,6 +248,75 @@
   </si>
   <si>
     <t>SHAOXING/NISHIMATSUYA</t>
+  </si>
+  <si>
+    <t>FEDEX/REFEX</t>
+  </si>
+  <si>
+    <t>INV NO. 870128687</t>
+  </si>
+  <si>
+    <t>INV NO. 870138343</t>
+  </si>
+  <si>
+    <t>INV NO. 870048771</t>
+  </si>
+  <si>
+    <t>INV NO. 869971222</t>
+  </si>
+  <si>
+    <t>INV NO. 870069728</t>
+  </si>
+  <si>
+    <t>INV NO. 870085656</t>
+  </si>
+  <si>
+    <t>INV NO. 870091402</t>
+  </si>
+  <si>
+    <t>INV NO. 870093989</t>
+  </si>
+  <si>
+    <t>INV NO. 870111817</t>
+  </si>
+  <si>
+    <t>INV NO. 870148463</t>
+  </si>
+  <si>
+    <t>INV NO. 870163301</t>
+  </si>
+  <si>
+    <t>PT. CAKRAWALA PERSADA LOGISTIC</t>
+  </si>
+  <si>
+    <t>NR70000024</t>
+  </si>
+  <si>
+    <t>NR70000025</t>
+  </si>
+  <si>
+    <t>BIROTIKA SEMESTA PT. ( DHL )</t>
+  </si>
+  <si>
+    <t>BDOIR00038452</t>
+  </si>
+  <si>
+    <t>INV NO. BDOIR00038452</t>
+  </si>
+  <si>
+    <t>BDOIR00038687</t>
+  </si>
+  <si>
+    <t>INV NO. BDOIR00038687</t>
+  </si>
+  <si>
+    <t>CV. FAJAR TERANG ABADI</t>
+  </si>
+  <si>
+    <t>33/FTA/II/2024</t>
+  </si>
+  <si>
+    <t>TOUCHING, NISHIMATSUYA</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1102,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:AZ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2077,80 +2146,2626 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>24001621</v>
+      </c>
+      <c r="D8">
+        <v>1201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45341</v>
+      </c>
       <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="G8">
-        <v>783.82</v>
+      <c r="G8" s="2">
+        <v>1326.93</v>
       </c>
       <c r="H8" s="2">
-        <v>3112.49</v>
-      </c>
-      <c r="K8" s="2">
-        <v>-2328.67</v>
+        <v>1326.93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
       <c r="L8" s="2">
-        <v>49186760</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-36800000</v>
+        <v>20969463</v>
       </c>
       <c r="N8" s="2">
-        <v>12386760</v>
+        <v>20969463</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>15803</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>2103755</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>54000374</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL8">
+        <v>870128687</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45294</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP8">
+        <v>1201</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX8">
+        <v>24001201</v>
+      </c>
+      <c r="AY8">
+        <v>630530</v>
+      </c>
+      <c r="AZ8">
+        <v>1201.6305299999999</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>24001624</v>
+      </c>
+      <c r="D9">
+        <v>1201</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45341</v>
+      </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>783.82</v>
+        <v>203.27</v>
       </c>
       <c r="H9">
-        <v>783.82</v>
+        <v>203.27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
       <c r="L9" s="2">
-        <v>12386760</v>
+        <v>3212200</v>
       </c>
       <c r="N9" s="2">
-        <v>12386760</v>
+        <v>3212200</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9">
+        <v>2103755</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
       </c>
       <c r="AG9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9">
+        <v>54000374</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL9">
+        <v>870138343</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45296</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP9">
+        <v>1201</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9">
+        <v>24001201</v>
+      </c>
+      <c r="AY9">
+        <v>630530</v>
+      </c>
+      <c r="AZ9">
+        <v>1201.6305299999999</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>24001625</v>
+      </c>
+      <c r="D10">
+        <v>1201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45341</v>
+      </c>
       <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1595.14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1595.14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2">
+        <v>25208000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>25208000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2103755</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10">
+        <v>54000374</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL10">
+        <v>870138343</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45296</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP10">
+        <v>1201</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR10" t="s">
         <v>78</v>
       </c>
-      <c r="G10">
-        <v>783.82</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3112.49</v>
-      </c>
-      <c r="K10" s="2">
-        <v>-2328.67</v>
-      </c>
-      <c r="L10" s="2">
-        <v>49186760</v>
-      </c>
-      <c r="M10" s="2">
-        <v>-36800000</v>
-      </c>
-      <c r="N10" s="2">
-        <v>12386760</v>
-      </c>
-      <c r="AG10">
-        <v>2</v>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX10">
+        <v>24001201</v>
+      </c>
+      <c r="AY10">
+        <v>630530</v>
+      </c>
+      <c r="AZ10">
+        <v>1201.6305299999999</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>24001626</v>
+      </c>
+      <c r="D11">
+        <v>1201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45341</v>
+      </c>
       <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>56.83</v>
+      </c>
+      <c r="H11">
+        <v>56.83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2">
+        <v>898155</v>
+      </c>
+      <c r="N11" s="2">
+        <v>898155</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15803</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>2103755</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11">
+        <v>54000374</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL11">
+        <v>870048771</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45632</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP11">
+        <v>1201</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR11" t="s">
         <v>79</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX11">
+        <v>24001201</v>
+      </c>
+      <c r="AY11">
+        <v>630530</v>
+      </c>
+      <c r="AZ11">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>24001627</v>
+      </c>
+      <c r="D12">
+        <v>1201</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="H12">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1217993</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1217993</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12">
+        <v>2103755</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12">
+        <v>54000374</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL12">
+        <v>869971222</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45238</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP12">
+        <v>1201</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX12">
+        <v>24001201</v>
+      </c>
+      <c r="AY12">
+        <v>630530</v>
+      </c>
+      <c r="AZ12">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>24001629</v>
+      </c>
+      <c r="D13">
+        <v>1201</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13">
+        <v>16.52</v>
+      </c>
+      <c r="H13">
+        <v>16.52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2">
+        <v>261049</v>
+      </c>
+      <c r="N13" s="2">
+        <v>261049</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13">
+        <v>2103755</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13">
+        <v>54000374</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL13">
+        <v>870069728</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP13">
+        <v>1201</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX13">
+        <v>24001201</v>
+      </c>
+      <c r="AY13">
+        <v>630530</v>
+      </c>
+      <c r="AZ13">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>24001631</v>
+      </c>
+      <c r="D14">
+        <v>1201</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>12.66</v>
+      </c>
+      <c r="H14">
+        <v>12.66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2">
+        <v>200000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>200000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>15803</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14">
+        <v>2103755</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14">
+        <v>54000374</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL14">
+        <v>870085656</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45278</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP14">
+        <v>1201</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX14">
+        <v>24001201</v>
+      </c>
+      <c r="AY14">
+        <v>630530</v>
+      </c>
+      <c r="AZ14">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>24001632</v>
+      </c>
+      <c r="D15">
+        <v>1201</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15">
+        <v>23.31</v>
+      </c>
+      <c r="H15">
+        <v>23.31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2">
+        <v>368428</v>
+      </c>
+      <c r="N15" s="2">
+        <v>368428</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15">
+        <v>15803</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15">
+        <v>2103755</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15">
+        <v>54000374</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL15">
+        <v>870085656</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45278</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP15">
+        <v>1201</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX15">
+        <v>24001201</v>
+      </c>
+      <c r="AY15">
+        <v>630530</v>
+      </c>
+      <c r="AZ15">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>24001633</v>
+      </c>
+      <c r="D16">
+        <v>1201</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1239.0899999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1239.0899999999999</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>19581383</v>
+      </c>
+      <c r="N16" s="2">
+        <v>19581383</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>2103755</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16">
+        <v>54000374</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL16">
+        <v>870091402</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45280</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP16">
+        <v>1201</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX16">
+        <v>24001201</v>
+      </c>
+      <c r="AY16">
+        <v>630530</v>
+      </c>
+      <c r="AZ16">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>24001635</v>
+      </c>
+      <c r="D17">
+        <v>1201</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17">
+        <v>41.97</v>
+      </c>
+      <c r="H17">
+        <v>41.97</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2">
+        <v>663194</v>
+      </c>
+      <c r="N17" s="2">
+        <v>663194</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>15803</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>2103755</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17">
+        <v>54000374</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL17">
+        <v>870093989</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45280</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP17">
+        <v>1201</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX17">
+        <v>24001201</v>
+      </c>
+      <c r="AY17">
+        <v>630530</v>
+      </c>
+      <c r="AZ17">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>24001636</v>
+      </c>
+      <c r="D18">
+        <v>1201</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>394.09</v>
+      </c>
+      <c r="H18">
+        <v>394.09</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6227781</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6227781</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18">
+        <v>15803</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2103755</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18">
+        <v>54000374</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL18">
+        <v>870093989</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45280</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP18">
+        <v>1201</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX18">
+        <v>24001201</v>
+      </c>
+      <c r="AY18">
+        <v>630530</v>
+      </c>
+      <c r="AZ18">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>24001637</v>
+      </c>
+      <c r="D19">
+        <v>1201</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="H19">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2">
+        <v>632839</v>
+      </c>
+      <c r="N19" s="2">
+        <v>632839</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19">
+        <v>15803</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>2103755</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19">
+        <v>54000374</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL19">
+        <v>870111817</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP19">
+        <v>1201</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX19">
+        <v>24001201</v>
+      </c>
+      <c r="AY19">
+        <v>630530</v>
+      </c>
+      <c r="AZ19">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>24001640</v>
+      </c>
+      <c r="D20">
+        <v>1201</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1610.61</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1610.61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2">
+        <v>25452484</v>
+      </c>
+      <c r="N20" s="2">
+        <v>25452484</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>15803</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20">
+        <v>2103857</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20">
+        <v>54000374</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20">
+        <v>870148463</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP20">
+        <v>1201</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX20">
+        <v>24001201</v>
+      </c>
+      <c r="AY20">
+        <v>630530</v>
+      </c>
+      <c r="AZ20">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>24001644</v>
+      </c>
+      <c r="D21">
+        <v>1201</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21">
+        <v>212.59</v>
+      </c>
+      <c r="H21">
+        <v>212.59</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3359514</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3359514</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2103857</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>54000374</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL21">
+        <v>870163301</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45308</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP21">
+        <v>1201</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX21">
+        <v>24001201</v>
+      </c>
+      <c r="AY21">
+        <v>630530</v>
+      </c>
+      <c r="AZ21">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>24001645</v>
+      </c>
+      <c r="D22">
+        <v>1201</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>45.24</v>
+      </c>
+      <c r="H22">
+        <v>45.24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2">
+        <v>715000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>715000</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2103923</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22">
+        <v>55426480</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP22">
+        <v>1201</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX22">
+        <v>24001183</v>
+      </c>
+      <c r="AY22">
+        <v>630530</v>
+      </c>
+      <c r="AZ22">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>24001646</v>
+      </c>
+      <c r="D23">
+        <v>1201</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>26.26</v>
+      </c>
+      <c r="H23">
+        <v>26.26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2">
+        <v>415000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>415000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15803</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23">
+        <v>2103923</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>55426480</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP23">
+        <v>1201</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX23">
+        <v>24001183</v>
+      </c>
+      <c r="AY23">
+        <v>630530</v>
+      </c>
+      <c r="AZ23">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>24001674</v>
+      </c>
+      <c r="D24">
+        <v>1201</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24">
+        <v>331.57</v>
+      </c>
+      <c r="H24">
+        <v>331.57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5239875</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5239875</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15803</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24">
+        <v>2104454</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24">
+        <v>54000160</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45265</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP24">
+        <v>1201</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX24">
+        <v>24001228</v>
+      </c>
+      <c r="AY24">
+        <v>630530</v>
+      </c>
+      <c r="AZ24">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24001675</v>
+      </c>
+      <c r="D25">
+        <v>1201</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>108.41</v>
+      </c>
+      <c r="H25">
+        <v>108.41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1713281</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1713281</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15803</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2104454</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>54000160</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45286</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP25">
+        <v>1201</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX25">
+        <v>24001228</v>
+      </c>
+      <c r="AY25">
+        <v>630530</v>
+      </c>
+      <c r="AZ25">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>24001733</v>
+      </c>
+      <c r="D26">
+        <v>1201</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26">
+        <v>177.97</v>
+      </c>
+      <c r="H26">
+        <v>177.97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2812500</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2812500</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>15803</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2105334</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>1875</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26">
+        <v>57341519</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP26">
+        <v>1201</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX26">
+        <v>24001258</v>
+      </c>
+      <c r="AY26">
+        <v>630530</v>
+      </c>
+      <c r="AZ26">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8323.4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>10652.07</v>
+      </c>
+      <c r="K27" s="2">
+        <v>-2328.67</v>
+      </c>
+      <c r="L27" s="2">
+        <v>168334899</v>
+      </c>
+      <c r="M27" s="2">
+        <v>-36800000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>131534899</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2">
+        <v>8323.4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8323.4</v>
+      </c>
+      <c r="L28" s="2">
+        <v>131534899</v>
+      </c>
+      <c r="N28" s="2">
+        <v>131534899</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="2">
+        <v>8323.4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10652.07</v>
+      </c>
+      <c r="K29" s="2">
+        <v>-2328.67</v>
+      </c>
+      <c r="L29" s="2">
+        <v>168334899</v>
+      </c>
+      <c r="M29" s="2">
+        <v>-36800000</v>
+      </c>
+      <c r="N29" s="2">
+        <v>131534899</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630530.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630530.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC5D2935-7A23-4508-8785-F673AEED0682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06BB4CE7-2B94-4914-B359-B934C4D28CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-25T060457.753" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T060525.736" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="117">
   <si>
     <t>Do Ty</t>
   </si>
@@ -317,6 +317,48 @@
   </si>
   <si>
     <t>TOUCHING, NISHIMATSUYA</t>
+  </si>
+  <si>
+    <t>IV70000023</t>
+  </si>
+  <si>
+    <t>MARUBENI CORPORATION JEPANG</t>
+  </si>
+  <si>
+    <t>JAKARTA INTERNATIONAL CONTAINE</t>
+  </si>
+  <si>
+    <t>NR70000011</t>
+  </si>
+  <si>
+    <t>PT.SINERGI BAHTERA MITRA</t>
+  </si>
+  <si>
+    <t>CV. SETIA  PAMILI</t>
+  </si>
+  <si>
+    <t>PEMBAYARAN SAMPAH BULAN FEBRUA</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>JOURNAL KOREKSI</t>
+  </si>
+  <si>
+    <t>KOREKSI FREIGHT IN</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>SANTY</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1171,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ30"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1355,10 +1397,7 @@
         <v>54</v>
       </c>
       <c r="G2" s="2">
-        <v>1600.96</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1600.96</v>
+        <v>-1600.96</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -1366,11 +1405,14 @@
       <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="2">
-        <v>25300000</v>
+      <c r="K2" s="2">
+        <v>-1600.96</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-25300000</v>
       </c>
       <c r="N2" s="2">
-        <v>25300000</v>
+        <v>-25300000</v>
       </c>
       <c r="O2" t="s">
         <v>56</v>
@@ -1406,7 +1448,7 @@
         <v>56</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
         <v>56</v>
@@ -1421,7 +1463,7 @@
         <v>56</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AH2" t="s">
         <v>56</v>
@@ -1452,6 +1494,9 @@
       </c>
       <c r="AR2" t="s">
         <v>66</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>45334</v>
       </c>
       <c r="AU2" t="s">
         <v>56</v>
@@ -1489,7 +1534,10 @@
         <v>54</v>
       </c>
       <c r="G3" s="2">
-        <v>-1600.96</v>
+        <v>1600.96</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1600.96</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -1497,14 +1545,11 @@
       <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="2">
-        <v>-1600.96</v>
-      </c>
-      <c r="M3" s="2">
-        <v>-25300000</v>
+      <c r="L3" s="2">
+        <v>25300000</v>
       </c>
       <c r="N3" s="2">
-        <v>-25300000</v>
+        <v>25300000</v>
       </c>
       <c r="O3" t="s">
         <v>56</v>
@@ -1540,7 +1585,7 @@
         <v>56</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="s">
         <v>56</v>
@@ -1555,7 +1600,7 @@
         <v>56</v>
       </c>
       <c r="AG3">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="s">
         <v>56</v>
@@ -1586,9 +1631,6 @@
       </c>
       <c r="AR3" t="s">
         <v>66</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>45334</v>
       </c>
       <c r="AU3" t="s">
         <v>56</v>
@@ -1626,10 +1668,7 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <v>727.71</v>
-      </c>
-      <c r="H4">
-        <v>727.71</v>
+        <v>-727.71</v>
       </c>
       <c r="I4" t="s">
         <v>55</v>
@@ -1637,11 +1676,14 @@
       <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="2">
-        <v>11500000</v>
+      <c r="K4">
+        <v>-727.71</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-11500000</v>
       </c>
       <c r="N4" s="2">
-        <v>11500000</v>
+        <v>-11500000</v>
       </c>
       <c r="O4" t="s">
         <v>56</v>
@@ -1677,7 +1719,7 @@
         <v>56</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
         <v>56</v>
@@ -1692,7 +1734,7 @@
         <v>56</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH4" t="s">
         <v>56</v>
@@ -1723,6 +1765,9 @@
       </c>
       <c r="AR4" t="s">
         <v>69</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>45334</v>
       </c>
       <c r="AU4" t="s">
         <v>56</v>
@@ -1760,7 +1805,10 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>-727.71</v>
+        <v>727.71</v>
+      </c>
+      <c r="H5">
+        <v>727.71</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -1768,14 +1816,11 @@
       <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5">
-        <v>-727.71</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-11500000</v>
+      <c r="L5" s="2">
+        <v>11500000</v>
       </c>
       <c r="N5" s="2">
-        <v>-11500000</v>
+        <v>11500000</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -1811,7 +1856,7 @@
         <v>56</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="s">
         <v>56</v>
@@ -1826,7 +1871,7 @@
         <v>56</v>
       </c>
       <c r="AG5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="s">
         <v>56</v>
@@ -1857,9 +1902,6 @@
       </c>
       <c r="AR5" t="s">
         <v>69</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>45334</v>
       </c>
       <c r="AU5" t="s">
         <v>56</v>
@@ -4692,80 +4734,842 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24001749</v>
+      </c>
+      <c r="D27">
+        <v>1201</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45348</v>
+      </c>
       <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>411.16</v>
+      </c>
+      <c r="H27">
+        <v>411.16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2">
+        <v>6497500</v>
+      </c>
+      <c r="N27" s="2">
+        <v>6497500</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27">
+        <v>15803</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2105562</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27">
+        <v>55229662</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL27" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="2">
-        <v>8323.4</v>
-      </c>
-      <c r="H27" s="2">
-        <v>10652.07</v>
-      </c>
-      <c r="K27" s="2">
-        <v>-2328.67</v>
-      </c>
-      <c r="L27" s="2">
-        <v>168334899</v>
-      </c>
-      <c r="M27" s="2">
-        <v>-36800000</v>
-      </c>
-      <c r="N27" s="2">
-        <v>131534899</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>1895</v>
+      <c r="AM27" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP27">
+        <v>1201</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX27">
+        <v>24001271</v>
+      </c>
+      <c r="AY27">
+        <v>630530</v>
+      </c>
+      <c r="AZ27">
+        <v>1201.6305299999999</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>24001750</v>
+      </c>
+      <c r="D28">
+        <v>1201</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45348</v>
+      </c>
       <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28">
+        <v>46.34</v>
+      </c>
+      <c r="H28">
+        <v>46.34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="2">
+        <v>732341</v>
+      </c>
+      <c r="N28" s="2">
+        <v>732341</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28">
+        <v>15803</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2105562</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28">
+        <v>55113299</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP28">
+        <v>1201</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR28" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="2">
-        <v>8323.4</v>
-      </c>
-      <c r="H28" s="2">
-        <v>8323.4</v>
-      </c>
-      <c r="L28" s="2">
-        <v>131534899</v>
-      </c>
-      <c r="N28" s="2">
-        <v>131534899</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>1895</v>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX28">
+        <v>24001269</v>
+      </c>
+      <c r="AY28">
+        <v>630530</v>
+      </c>
+      <c r="AZ28">
+        <v>1201.6305299999999</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>24001751</v>
+      </c>
+      <c r="D29">
+        <v>1201</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45348</v>
+      </c>
       <c r="F29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="2">
-        <v>8323.4</v>
-      </c>
-      <c r="H29" s="2">
-        <v>10652.07</v>
-      </c>
-      <c r="K29" s="2">
-        <v>-2328.67</v>
+        <v>103</v>
+      </c>
+      <c r="G29">
+        <v>43.03</v>
+      </c>
+      <c r="H29">
+        <v>43.03</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
       </c>
       <c r="L29" s="2">
-        <v>168334899</v>
-      </c>
-      <c r="M29" s="2">
-        <v>-36800000</v>
+        <v>680000</v>
       </c>
       <c r="N29" s="2">
-        <v>131534899</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>1895</v>
+        <v>680000</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29">
+        <v>15803</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>2105562</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI29">
+        <v>57423549</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP29">
+        <v>1201</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX29">
+        <v>24001270</v>
+      </c>
+      <c r="AY29">
+        <v>630530</v>
+      </c>
+      <c r="AZ29">
+        <v>1201.6305299999999</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>24001757</v>
+      </c>
+      <c r="D30">
+        <v>1201</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45349</v>
+      </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G30">
+        <v>44.3</v>
+      </c>
+      <c r="H30">
+        <v>44.3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="2">
+        <v>700000</v>
+      </c>
+      <c r="N30" s="2">
+        <v>700000</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30">
+        <v>15803</v>
+      </c>
+      <c r="T30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30">
+        <v>2105847</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI30">
+        <v>57342386</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP30">
+        <v>1201</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX30">
+        <v>24001259</v>
+      </c>
+      <c r="AY30">
+        <v>630530</v>
+      </c>
+      <c r="AZ30">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>24001012</v>
+      </c>
+      <c r="D31">
+        <v>1201</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31">
+        <v>-44.3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31">
+        <v>-44.3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>109</v>
+      </c>
+      <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>110</v>
+      </c>
+      <c r="W31" t="s">
+        <v>111</v>
+      </c>
+      <c r="X31">
+        <v>2107209</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP31">
+        <v>1201</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY31">
+        <v>630530</v>
+      </c>
+      <c r="AZ31">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>24001012</v>
+      </c>
+      <c r="D32">
+        <v>1201</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7960.32</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7960.32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>109</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>110</v>
+      </c>
+      <c r="W32" t="s">
+        <v>111</v>
+      </c>
+      <c r="X32">
+        <v>2107209</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP32">
+        <v>1201</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY32">
+        <v>630530</v>
+      </c>
+      <c r="AZ32">
+        <v>1201.6305299999999</v>
+      </c>
+    </row>
+    <row r="33" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="2">
+        <v>16784.25</v>
+      </c>
+      <c r="H33" s="2">
+        <v>19157.22</v>
+      </c>
+      <c r="K33" s="2">
+        <v>-2372.9699999999998</v>
+      </c>
+      <c r="L33" s="2">
+        <v>176944740</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-36800000</v>
+      </c>
+      <c r="N33" s="2">
+        <v>140144740</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="34" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="2">
+        <v>16784.25</v>
+      </c>
+      <c r="H34" s="2">
+        <v>16784.25</v>
+      </c>
+      <c r="L34" s="2">
+        <v>140144740</v>
+      </c>
+      <c r="N34" s="2">
+        <v>140144740</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="35" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="2">
+        <v>16784.25</v>
+      </c>
+      <c r="H35" s="2">
+        <v>19157.22</v>
+      </c>
+      <c r="K35" s="2">
+        <v>-2372.9699999999998</v>
+      </c>
+      <c r="L35" s="2">
+        <v>176944740</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-36800000</v>
+      </c>
+      <c r="N35" s="2">
+        <v>140144740</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="36" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
